--- a/help/Inventario.xlsx
+++ b/help/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6144181-1AAE-4908-BDB1-53C3E0FB7481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD197A4-490A-4730-84DD-5C2AEF8A5037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="197">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -702,6 +702,36 @@
   </si>
   <si>
     <t>residential_percent_change_from_baseline</t>
+  </si>
+  <si>
+    <t>“Serie de tiempo” de casos confirmados, recuperados y muertes</t>
+  </si>
+  <si>
+    <t>covid_19_data</t>
+  </si>
+  <si>
+    <t>SNo</t>
+  </si>
+  <si>
+    <t>ObservationDate</t>
+  </si>
+  <si>
+    <t>Province/State</t>
+  </si>
+  <si>
+    <t>Country/Region</t>
+  </si>
+  <si>
+    <t>Last Update</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Deaths</t>
+  </si>
+  <si>
+    <t>Recovered</t>
   </si>
 </sst>
 </file>
@@ -1109,8 +1139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1766,10 +1796,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>187</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>24</v>
@@ -1785,6 +1815,30 @@
       </c>
       <c r="I12" s="2" t="s">
         <v>73</v>
+      </c>
+      <c r="J12" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" t="s">
+        <v>190</v>
+      </c>
+      <c r="L12" t="s">
+        <v>191</v>
+      </c>
+      <c r="M12" t="s">
+        <v>192</v>
+      </c>
+      <c r="N12" t="s">
+        <v>193</v>
+      </c>
+      <c r="O12" t="s">
+        <v>194</v>
+      </c>
+      <c r="P12" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">

--- a/help/Inventario.xlsx
+++ b/help/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD197A4-490A-4730-84DD-5C2AEF8A5037}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011B50E6-ECFF-4267-AAA6-61D75604FE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <author>Felipe Villabona</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{2F0D6B27-7CDC-4AA8-8022-C1A5218F5EAE}">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{2F0D6B27-7CDC-4AA8-8022-C1A5218F5EAE}">
       <text>
         <r>
           <rPr>
@@ -63,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0" shapeId="0" xr:uid="{CFABB190-08CE-40C0-B460-D94A5CEC5113}">
+    <comment ref="G6" authorId="0" shapeId="0" xr:uid="{CFABB190-08CE-40C0-B460-D94A5CEC5113}">
       <text>
         <r>
           <rPr>
@@ -88,7 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A10" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{B9747586-E1DB-495D-9324-DF0FAB896959}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{E67EC31A-F76E-40C0-A738-F3198CF1132A}">
       <text>
         <r>
           <rPr>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="213">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -152,9 +152,6 @@
     <t>https://medium.com/@juanpablocuevas/mapas-de-concentraci%C3%B3n-de-la-biodiversidad-para-el-an%C3%A1lisis-geoespacial-de-la-riqueza-colombiana-cbc616956fc2</t>
   </si>
   <si>
-    <t>https://www.datos.gov.co/en/d/gt2j-8ykr/visualization</t>
-  </si>
-  <si>
     <t>https://geoportal.dane.gov.co/geovisores/territorio/consulta-divipola-division-politico-administrativa-de-colombia/</t>
   </si>
   <si>
@@ -314,9 +311,6 @@
     <t>Estado</t>
   </si>
   <si>
-    <t>Ciudad</t>
-  </si>
-  <si>
     <t>Muestras_procesadas_de_COVID-19_en_Colombia</t>
   </si>
   <si>
@@ -732,6 +726,60 @@
   </si>
   <si>
     <t>Recovered</t>
+  </si>
+  <si>
+    <t>Ciudad - Sexo- Fecha - Edad</t>
+  </si>
+  <si>
+    <t>Modelo</t>
+  </si>
+  <si>
+    <t>Tablero</t>
+  </si>
+  <si>
+    <t>GIFT</t>
+  </si>
+  <si>
+    <t>https://www.datos.gov.co/Salud-y-Protecci-n-Social/Casos-positivos-de-COVID-19-en-Colombia/gt2j-8ykr</t>
+  </si>
+  <si>
+    <t>DIVIPOLA</t>
+  </si>
+  <si>
+    <t>DANE</t>
+  </si>
+  <si>
+    <t>MINSALUD</t>
+  </si>
+  <si>
+    <t>Pobreza</t>
+  </si>
+  <si>
+    <t>Población por grupo de edades</t>
+  </si>
+  <si>
+    <t>Oficial</t>
+  </si>
+  <si>
+    <t>Población</t>
+  </si>
+  <si>
+    <t>Uso de transporte</t>
+  </si>
+  <si>
+    <t>Schools closures</t>
+  </si>
+  <si>
+    <t>Workplaces closures</t>
+  </si>
+  <si>
+    <t>Cancellation of public events</t>
+  </si>
+  <si>
+    <t>Restrictions on public gatherings</t>
+  </si>
+  <si>
+    <t>Población mundial</t>
   </si>
 </sst>
 </file>
@@ -776,12 +824,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -812,7 +872,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -822,6 +882,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1137,938 +1205,1065 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AT26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="L2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M2" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>79</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" t="s">
+        <v>84</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3" t="s">
+        <v>86</v>
+      </c>
+      <c r="O3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="K4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>53</v>
+      </c>
+      <c r="R4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" t="s">
+        <v>45</v>
+      </c>
+      <c r="L5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>93</v>
+      </c>
+      <c r="R5" t="s">
+        <v>94</v>
+      </c>
+      <c r="S5" t="s">
+        <v>95</v>
+      </c>
+      <c r="T5" t="s">
+        <v>96</v>
+      </c>
+      <c r="U5" t="s">
+        <v>97</v>
+      </c>
+      <c r="V5" t="s">
+        <v>98</v>
+      </c>
+      <c r="W5" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>101</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO5" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP5" t="s">
+        <v>118</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AT5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>197</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" t="s">
+        <v>123</v>
+      </c>
+      <c r="L6" t="s">
+        <v>124</v>
+      </c>
+      <c r="M6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N6" t="s">
+        <v>126</v>
+      </c>
+      <c r="O6" t="s">
+        <v>127</v>
+      </c>
+      <c r="P6" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>129</v>
+      </c>
+      <c r="R6" t="s">
+        <v>130</v>
+      </c>
+      <c r="S6" t="s">
+        <v>131</v>
+      </c>
+      <c r="T6" t="s">
+        <v>132</v>
+      </c>
+      <c r="U6" t="s">
+        <v>133</v>
+      </c>
+      <c r="V6" t="s">
+        <v>134</v>
+      </c>
+      <c r="W6" t="s">
+        <v>135</v>
+      </c>
+      <c r="X6" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>146</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>147</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>148</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AO6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP6" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K9" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" t="s">
+        <v>162</v>
+      </c>
+      <c r="O9" t="s">
+        <v>163</v>
+      </c>
+      <c r="P9" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S9" t="s">
+        <v>167</v>
+      </c>
+      <c r="T9" t="s">
+        <v>168</v>
+      </c>
+      <c r="U9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>197</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" t="s">
+        <v>186</v>
+      </c>
+      <c r="E12" t="s">
+        <v>185</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>187</v>
+      </c>
+      <c r="L12" t="s">
+        <v>188</v>
+      </c>
+      <c r="M12" t="s">
+        <v>189</v>
+      </c>
+      <c r="N12" t="s">
+        <v>190</v>
+      </c>
+      <c r="O12" t="s">
+        <v>191</v>
+      </c>
+      <c r="P12" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>193</v>
+      </c>
+      <c r="R12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" t="s">
+        <v>175</v>
+      </c>
+      <c r="L13" t="s">
+        <v>176</v>
+      </c>
+      <c r="M13" t="s">
+        <v>177</v>
+      </c>
+      <c r="N13" t="s">
+        <v>178</v>
+      </c>
+      <c r="O13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>180</v>
+      </c>
+      <c r="R13" t="s">
+        <v>181</v>
+      </c>
+      <c r="S13" t="s">
+        <v>182</v>
+      </c>
+      <c r="T13" t="s">
+        <v>183</v>
+      </c>
+      <c r="U13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>196</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>204</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="K2" t="s">
-        <v>78</v>
-      </c>
-      <c r="L2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M2" t="s">
-        <v>80</v>
-      </c>
-      <c r="N2" t="s">
-        <v>81</v>
-      </c>
-      <c r="O2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K3" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>88</v>
-      </c>
-      <c r="N3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="C22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="J4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>55</v>
-      </c>
-      <c r="R4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" t="s">
-        <v>46</v>
-      </c>
-      <c r="K5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" t="s">
-        <v>93</v>
-      </c>
-      <c r="O5" t="s">
-        <v>94</v>
-      </c>
-      <c r="P5" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R5" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" t="s">
-        <v>98</v>
-      </c>
-      <c r="T5" t="s">
-        <v>99</v>
-      </c>
-      <c r="U5" t="s">
-        <v>100</v>
-      </c>
-      <c r="V5" t="s">
-        <v>101</v>
-      </c>
-      <c r="W5" t="s">
-        <v>102</v>
-      </c>
-      <c r="X5" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN5" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO5" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP5" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" t="s">
-        <v>126</v>
-      </c>
-      <c r="L6" t="s">
-        <v>127</v>
-      </c>
-      <c r="M6" t="s">
-        <v>128</v>
-      </c>
-      <c r="N6" t="s">
-        <v>129</v>
-      </c>
-      <c r="O6" t="s">
-        <v>130</v>
-      </c>
-      <c r="P6" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>132</v>
-      </c>
-      <c r="R6" t="s">
-        <v>133</v>
-      </c>
-      <c r="S6" t="s">
-        <v>134</v>
-      </c>
-      <c r="T6" t="s">
-        <v>135</v>
-      </c>
-      <c r="U6" t="s">
-        <v>136</v>
-      </c>
-      <c r="V6" t="s">
-        <v>137</v>
-      </c>
-      <c r="W6" t="s">
-        <v>138</v>
-      </c>
-      <c r="X6" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>140</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>148</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>149</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>150</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>152</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AO6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="D22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="D8" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>25</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" t="s">
-        <v>157</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>25</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>161</v>
-      </c>
-      <c r="K9" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" t="s">
-        <v>163</v>
-      </c>
-      <c r="M9" t="s">
-        <v>164</v>
-      </c>
-      <c r="N9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" t="s">
-        <v>166</v>
-      </c>
-      <c r="P9" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>168</v>
-      </c>
-      <c r="R9" t="s">
-        <v>169</v>
-      </c>
-      <c r="S9" t="s">
+      <c r="E25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="T9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>25</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" t="s">
-        <v>187</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J12" t="s">
-        <v>189</v>
-      </c>
-      <c r="K12" t="s">
-        <v>190</v>
-      </c>
-      <c r="L12" t="s">
-        <v>191</v>
-      </c>
-      <c r="M12" t="s">
-        <v>192</v>
-      </c>
-      <c r="N12" t="s">
-        <v>193</v>
-      </c>
-      <c r="O12" t="s">
-        <v>194</v>
-      </c>
-      <c r="P12" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D13" t="s">
-        <v>176</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J13" t="s">
-        <v>177</v>
-      </c>
-      <c r="K13" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" t="s">
-        <v>179</v>
-      </c>
-      <c r="M13" t="s">
-        <v>180</v>
-      </c>
-      <c r="N13" t="s">
-        <v>127</v>
-      </c>
-      <c r="O13" t="s">
-        <v>181</v>
-      </c>
-      <c r="P13" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>183</v>
-      </c>
-      <c r="R13" t="s">
-        <v>184</v>
-      </c>
-      <c r="S13" t="s">
-        <v>185</v>
-      </c>
-      <c r="T13" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" t="s">
-        <v>33</v>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{CCAE2F90-42E4-407A-AB1E-BB2C46C8ECC4}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{C5762E36-1677-4DDD-BAA1-57C02026CE02}"/>
-    <hyperlink ref="B14" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
-    <hyperlink ref="B15" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
-    <hyperlink ref="B16" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
-    <hyperlink ref="B17" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
-    <hyperlink ref="B3" r:id="rId7" xr:uid="{C3505F30-AEB8-4C79-ACEA-B645738EAB7F}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{7096DE1B-C9E9-457F-B42A-1F80EF443061}"/>
-    <hyperlink ref="B18" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
-    <hyperlink ref="B10" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
-    <hyperlink ref="B11" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
-    <hyperlink ref="B12" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
-    <hyperlink ref="B7" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
-    <hyperlink ref="B6" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
-    <hyperlink ref="B19" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
-    <hyperlink ref="B20" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
-    <hyperlink ref="F6" r:id="rId17" display="https://github.com/owid/covid-19-data/blob/master/public/data/owid-covid-data.csv" xr:uid="{0AAA3869-06BB-4BF7-B221-184FA6432453}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{86AFC568-138E-426D-A52D-592CF1884618}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{D109DD53-BAD0-43D7-9188-28908F6E6CB2}"/>
-    <hyperlink ref="B24" r:id="rId20" xr:uid="{320D1AB7-EB63-429A-8510-9D0BA6FB2B5D}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{5A1EF81E-EEFD-4462-8636-E8D0FF45185E}"/>
-    <hyperlink ref="B9" r:id="rId22" xr:uid="{1E9A3ABB-F715-436A-A7C6-10BE88155252}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{11D0BDAB-B63A-48A9-9BE9-2554BC86247C}"/>
-    <hyperlink ref="B13" r:id="rId24" xr:uid="{E57ADC7A-9BB8-4294-9263-92ACC2ECEA56}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CCAE2F90-42E4-407A-AB1E-BB2C46C8ECC4}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{C5762E36-1677-4DDD-BAA1-57C02026CE02}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{8F80DDD3-F1B0-4BA5-8497-088E78997851}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{824FD609-8F0F-456E-86F2-46014A29172A}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{FBB4471A-9DB7-4088-B7A9-782C696F44C3}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{7FC73FAD-350E-4D15-BA3B-D0C5C5AC2C5F}"/>
+    <hyperlink ref="C3" r:id="rId7" xr:uid="{C3505F30-AEB8-4C79-ACEA-B645738EAB7F}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{7096DE1B-C9E9-457F-B42A-1F80EF443061}"/>
+    <hyperlink ref="C18" r:id="rId9" xr:uid="{95B1FCD2-F551-4DDE-AAC8-E9E50D082A51}"/>
+    <hyperlink ref="C10" r:id="rId10" xr:uid="{40680C6B-711F-4DA3-9FF1-E3FE996BBD5B}"/>
+    <hyperlink ref="C11" r:id="rId11" xr:uid="{77E73868-41CD-4D69-838C-7A3AA7978343}"/>
+    <hyperlink ref="C12" r:id="rId12" xr:uid="{B5F75B5D-A65B-403B-BFE0-AD7D29C84558}"/>
+    <hyperlink ref="C7" r:id="rId13" xr:uid="{3EC3D669-FC09-4453-86D4-8D4015FA23EB}"/>
+    <hyperlink ref="C6" r:id="rId14" xr:uid="{298E7650-A687-43A2-A4F3-2297D330E42E}"/>
+    <hyperlink ref="C19" r:id="rId15" xr:uid="{35934A62-0C18-4EDB-BB5A-A4A5DB50031A}"/>
+    <hyperlink ref="C20" r:id="rId16" xr:uid="{161941B1-2B68-4022-8A99-BDB5A51C0C2F}"/>
+    <hyperlink ref="G6" r:id="rId17" display="https://github.com/owid/covid-19-data/blob/master/public/data/owid-covid-data.csv" xr:uid="{0AAA3869-06BB-4BF7-B221-184FA6432453}"/>
+    <hyperlink ref="C25" r:id="rId18" xr:uid="{D109DD53-BAD0-43D7-9188-28908F6E6CB2}"/>
+    <hyperlink ref="C9" r:id="rId19" xr:uid="{1E9A3ABB-F715-436A-A7C6-10BE88155252}"/>
+    <hyperlink ref="C26" r:id="rId20" xr:uid="{11D0BDAB-B63A-48A9-9BE9-2554BC86247C}"/>
+    <hyperlink ref="C13" r:id="rId21" xr:uid="{E57ADC7A-9BB8-4294-9263-92ACC2ECEA56}"/>
+    <hyperlink ref="C21" r:id="rId22" xr:uid="{86AFC568-138E-426D-A52D-592CF1884618}"/>
+    <hyperlink ref="C22" r:id="rId23" xr:uid="{C7D21AB5-8754-49ED-AEC6-3E854D23EAB9}"/>
+    <hyperlink ref="C23" r:id="rId24" xr:uid="{5A515D56-4F99-47C9-B41A-2D5DD980FA86}"/>
+    <hyperlink ref="C24" r:id="rId25" xr:uid="{4669BCE6-F8CB-4B6B-895A-FBC03A2514F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId25"/>
+  <legacyDrawing r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/help/Inventario.xlsx
+++ b/help/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{011B50E6-ECFF-4267-AAA6-61D75604FE0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC1B50-B953-4299-8341-C8DBE429110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -141,7 +141,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="217">
   <si>
     <t>https://geoportal.igac.gov.co/contenido/datos-abiertos-transparencia</t>
   </si>
@@ -780,6 +780,18 @@
   </si>
   <si>
     <t>Población mundial</t>
+  </si>
+  <si>
+    <t>https://www.datos.gov.co/Ambiente-y-Desarrollo-Sostenible/Datos-Hidrometeorol-gicos-Crudos-Red-de-Estaciones/sbwg-7ju4/data</t>
+  </si>
+  <si>
+    <t>Temperatura promedio</t>
+  </si>
+  <si>
+    <t>https://www.datos.gov.co/Ambiente-y-Desarrollo-Sostenible/DATOS-DE-CALIDAD-DEL-AIRE-EN-COLOMBIA-2011-2018/ysq6-ri4e</t>
+  </si>
+  <si>
+    <t>Calidad del aire</t>
   </si>
 </sst>
 </file>
@@ -1205,10 +1217,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
-  <dimension ref="A1:AT26"/>
+  <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2232,6 +2244,34 @@
       </c>
       <c r="E26" t="s">
         <v>212</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>196</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -2261,9 +2301,11 @@
     <hyperlink ref="C22" r:id="rId23" xr:uid="{C7D21AB5-8754-49ED-AEC6-3E854D23EAB9}"/>
     <hyperlink ref="C23" r:id="rId24" xr:uid="{5A515D56-4F99-47C9-B41A-2D5DD980FA86}"/>
     <hyperlink ref="C24" r:id="rId25" xr:uid="{4669BCE6-F8CB-4B6B-895A-FBC03A2514F4}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{F617D8EF-DF27-41D1-B1C5-FBED784A9D9E}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{4E9DB7F2-151C-40E0-8817-D9FF5EDA7539}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId26"/>
+  <legacyDrawing r:id="rId28"/>
 </worksheet>
 </file>
 

--- a/help/Inventario.xlsx
+++ b/help/Inventario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelipeVillabona\Desktop\Datos-Colombia\help\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1EC1B50-B953-4299-8341-C8DBE429110C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47FCD027-0BC7-4728-AC3C-833839492D33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{CB768493-B54D-4B0D-BC0B-B3154140D79A}"/>
   </bookViews>
@@ -1219,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F3F801-2C6A-4A85-B3F2-8A3A577B28D3}">
   <dimension ref="A1:AT28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
